--- a/modeling/lab2/Лабораторная работа 2 - Моделирование [Done].xlsx
+++ b/modeling/lab2/Лабораторная работа 2 - Моделирование [Done].xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pomat\Documents\Itmo\4course\modeling\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A2A63C-D9EA-4602-B58E-B6443A9A8017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5050875-5D23-4C9C-95FC-F752B5826E5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="8" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Система_2 (q=0.2)_2" sheetId="14" r:id="rId1"/>
@@ -2192,16 +2192,16 @@
                   <c:v>3.5990000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>10.333299999999999</c:v>
+                  <c:v>206.66669999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.45</c:v>
+                  <c:v>210.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64600000000000002</c:v>
+                  <c:v>0.98229999999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.17699999999999999</c:v>
+                  <c:v>8.8000000000000005E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5899,7 +5899,7 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+    <sheetView zoomScale="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -6037,7 +6037,7 @@
       </c>
       <c r="D6" s="31">
         <f>ROUND('Система_2 (q=0.05)_2'!$J$16, 4)</f>
-        <v>10.333299999999999</v>
+        <v>206.66669999999999</v>
       </c>
       <c r="E6" s="31">
         <f>ROUND('Система_2 (q=0.35)_2'!$J$16, 4)</f>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="D7" s="31">
         <f>ROUND('Система_2 (q=0.05)_2'!$J$19, 4)</f>
-        <v>20.45</v>
+        <v>210.45</v>
       </c>
       <c r="E7" s="31">
         <f>ROUND('Система_2 (q=0.35)_2'!$J$19, 4)</f>
@@ -6087,7 +6087,7 @@
       </c>
       <c r="D8" s="31">
         <f>ROUND('Система_2 (q=0.05)_2'!$J$22, 4)</f>
-        <v>0.64600000000000002</v>
+        <v>0.98229999999999995</v>
       </c>
       <c r="E8" s="31">
         <f>ROUND('Система_2 (q=0.35)_2'!$J$22, 4)</f>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="D9" s="34">
         <f>ROUND('Система_2 (q=0.05)_2'!$J$25, 4)</f>
-        <v>0.17699999999999999</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="E9" s="34">
         <f>ROUND('Система_2 (q=0.35)_2'!$J$25, 4)</f>
@@ -8606,7 +8606,7 @@
         <v>1.8776064000000003</v>
       </c>
       <c r="J28" s="61">
-        <f t="shared" ref="J28:J29" si="7">J6+J9</f>
+        <f t="shared" ref="J28" si="7">J6+J9</f>
         <v>1.881</v>
       </c>
     </row>
@@ -11858,7 +11858,7 @@
         <v>1.9213690999999999</v>
       </c>
       <c r="J28" s="61">
-        <f t="shared" ref="J28:J29" si="7">J6+J9</f>
+        <f t="shared" ref="J28" si="7">J6+J9</f>
         <v>1.92</v>
       </c>
     </row>
@@ -12736,8 +12736,8 @@
   </sheetPr>
   <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView zoomScale="97" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J2:J25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="97" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -12792,7 +12792,7 @@
       </c>
       <c r="J2" s="6">
         <f>B2*B3*B4</f>
-        <v>3.5</v>
+        <v>70</v>
       </c>
       <c r="L2" s="16" t="s">
         <v>44</v>
@@ -12863,7 +12863,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D3" s="55" t="s">
         <v>119</v>
@@ -12880,14 +12880,14 @@
       </c>
       <c r="J3" s="8">
         <f>B2*B3*(1-B4)</f>
-        <v>1.5000000000000002</v>
+        <v>30.000000000000004</v>
       </c>
       <c r="L3" s="54" t="s">
         <v>85</v>
       </c>
       <c r="M3" s="17">
         <f t="shared" ref="M3:AB18" si="0">B31</f>
-        <v>-0.82157736643437507</v>
+        <v>-0.68945386832171862</v>
       </c>
       <c r="N3" s="18">
         <f t="shared" si="0"/>
@@ -12895,7 +12895,7 @@
       </c>
       <c r="O3" s="18">
         <f t="shared" si="0"/>
-        <v>0.13907736643437518</v>
+        <v>6.9538683217187586E-3</v>
       </c>
       <c r="P3" s="19">
         <f t="shared" si="0"/>
@@ -12988,18 +12988,18 @@
       </c>
       <c r="J4" s="10">
         <f>SUM(J2:J3)</f>
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="L4" s="54" t="s">
         <v>86</v>
       </c>
       <c r="M4" s="20">
         <f t="shared" si="0"/>
-        <v>1.5776505912784206E-2</v>
+        <v>7.888252956392101E-4</v>
       </c>
       <c r="N4" s="17">
         <f t="shared" si="0"/>
-        <v>-0.71577650591278419</v>
+        <v>-0.70078882529563913</v>
       </c>
       <c r="O4" s="19">
         <f t="shared" si="0"/>
@@ -13112,7 +13112,7 @@
       </c>
       <c r="O5" s="17">
         <f t="shared" si="0"/>
-        <v>-0.37445386832171873</v>
+        <v>-0.36784769341608592</v>
       </c>
       <c r="P5" s="19">
         <f t="shared" si="0"/>
@@ -13120,7 +13120,7 @@
       </c>
       <c r="Q5" s="18">
         <f t="shared" si="0"/>
-        <v>6.9538683217187595E-3</v>
+        <v>3.4769341608593794E-4</v>
       </c>
       <c r="R5" s="19">
         <f t="shared" si="0"/>
@@ -13189,7 +13189,7 @@
       </c>
       <c r="B6" s="2">
         <f>1/B3</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D6" s="55" t="s">
         <v>122</v>
@@ -13216,15 +13216,15 @@
       </c>
       <c r="N6" s="20">
         <f t="shared" si="0"/>
-        <v>1.4987680617144995E-2</v>
+        <v>7.4938403085724956E-4</v>
       </c>
       <c r="O6" s="20">
         <f t="shared" si="0"/>
-        <v>7.8882529563921032E-4</v>
+        <v>3.9441264781960508E-5</v>
       </c>
       <c r="P6" s="17">
         <f t="shared" si="0"/>
-        <v>-0.36577650591278421</v>
+        <v>-0.35078882529563921</v>
       </c>
       <c r="Q6" s="19">
         <f t="shared" si="0"/>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="N7" s="20">
         <f t="shared" si="0"/>
-        <v>0.13212349811265642</v>
+        <v>6.6061749056328207E-3</v>
       </c>
       <c r="O7" s="20">
         <f t="shared" si="0"/>
@@ -13336,7 +13336,7 @@
       </c>
       <c r="Q7" s="17">
         <f t="shared" si="0"/>
-        <v>-0.8321234981126564</v>
+        <v>-0.70660617490563271</v>
       </c>
       <c r="R7" s="19">
         <f t="shared" si="0"/>
@@ -13429,7 +13429,7 @@
       </c>
       <c r="M8" s="20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N8" s="19">
         <f t="shared" si="0"/>
@@ -13449,7 +13449,7 @@
       </c>
       <c r="R8" s="17">
         <f t="shared" si="0"/>
-        <v>-0.79999999999999993</v>
+        <v>-0.70499999999999996</v>
       </c>
       <c r="S8" s="18">
         <f t="shared" si="0"/>
@@ -13556,11 +13556,11 @@
       </c>
       <c r="R9" s="20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="S9" s="17">
         <f t="shared" si="0"/>
-        <v>-0.79999999999999993</v>
+        <v>-0.70499999999999996</v>
       </c>
       <c r="T9" s="18">
         <f t="shared" si="0"/>
@@ -13621,7 +13621,7 @@
       </c>
       <c r="B10" s="21">
         <f>$B$5*$B$4*$B$6</f>
-        <v>3.4999999999999996E-3</v>
+        <v>1.75E-4</v>
       </c>
       <c r="D10" s="55" t="s">
         <v>126</v>
@@ -13669,11 +13669,11 @@
       </c>
       <c r="S10" s="20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="T10" s="17">
         <f t="shared" si="0"/>
-        <v>-0.45</v>
+        <v>-0.35499999999999998</v>
       </c>
       <c r="U10" s="19">
         <f t="shared" si="0"/>
@@ -13730,7 +13730,7 @@
       </c>
       <c r="B11" s="21">
         <f>(1-$B$5)*$B$4*$B$6</f>
-        <v>6.649999999999999E-2</v>
+        <v>3.3249999999999998E-3</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>127</v>
@@ -13760,7 +13760,7 @@
       </c>
       <c r="N11" s="20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="O11" s="19">
         <f t="shared" si="0"/>
@@ -13776,7 +13776,7 @@
       </c>
       <c r="R11" s="20">
         <f t="shared" si="0"/>
-        <v>1.5776505912784206E-2</v>
+        <v>7.888252956392101E-4</v>
       </c>
       <c r="S11" s="19">
         <f t="shared" si="0"/>
@@ -13788,7 +13788,7 @@
       </c>
       <c r="U11" s="17">
         <f t="shared" si="0"/>
-        <v>-0.81577650591278417</v>
+        <v>-0.70578882529563924</v>
       </c>
       <c r="V11" s="19">
         <f t="shared" si="0"/>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="O12" s="20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="P12" s="19">
         <f t="shared" si="0"/>
@@ -13878,7 +13878,7 @@
       </c>
       <c r="R12" s="20">
         <f t="shared" si="0"/>
-        <v>0.13907736643437518</v>
+        <v>6.9538683217187586E-3</v>
       </c>
       <c r="S12" s="19">
         <f t="shared" si="0"/>
@@ -13894,7 +13894,7 @@
       </c>
       <c r="V12" s="17">
         <f t="shared" si="0"/>
-        <v>-0.93907736643437512</v>
+        <v>-0.7119538683217187</v>
       </c>
       <c r="W12" s="19">
         <f t="shared" si="0"/>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="B13" s="7">
         <f>(1+SQRT((1-B5)/(2*B5)*(B9^2-1)))*B3</f>
-        <v>63.385391260156545</v>
+        <v>1267.7078252031311</v>
       </c>
       <c r="D13" s="55" t="s">
         <v>129</v>
@@ -13991,7 +13991,7 @@
       </c>
       <c r="S13" s="20">
         <f t="shared" si="0"/>
-        <v>1.5776505912784206E-2</v>
+        <v>7.888252956392101E-4</v>
       </c>
       <c r="T13" s="19">
         <f t="shared" si="0"/>
@@ -13999,7 +13999,7 @@
       </c>
       <c r="U13" s="20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="V13" s="19">
         <f t="shared" si="0"/>
@@ -14007,7 +14007,7 @@
       </c>
       <c r="W13" s="17">
         <f t="shared" si="0"/>
-        <v>-0.81577650591278417</v>
+        <v>-0.70578882529563924</v>
       </c>
       <c r="X13" s="19">
         <f t="shared" si="0"/>
@@ -14052,7 +14052,7 @@
       </c>
       <c r="B14" s="7">
         <f>(1-SQRT((B5)/(2*(1-B5))*(B9^2-1)))*B3</f>
-        <v>7.190242565254918</v>
+        <v>143.80485130509837</v>
       </c>
       <c r="D14" s="55" t="s">
         <v>130</v>
@@ -14101,7 +14101,7 @@
       </c>
       <c r="S14" s="20">
         <f t="shared" si="0"/>
-        <v>0.13907736643437518</v>
+        <v>6.9538683217187586E-3</v>
       </c>
       <c r="T14" s="19">
         <f t="shared" si="0"/>
@@ -14113,7 +14113,7 @@
       </c>
       <c r="V14" s="20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="W14" s="19">
         <f t="shared" si="0"/>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="X14" s="17">
         <f t="shared" si="0"/>
-        <v>-0.93907736643437512</v>
+        <v>-0.7119538683217187</v>
       </c>
       <c r="Y14" s="19">
         <f t="shared" si="0"/>
@@ -14162,7 +14162,7 @@
       </c>
       <c r="B15" s="7">
         <f t="shared" ref="B15:B16" si="2">B13^-1</f>
-        <v>1.5776505912784206E-2</v>
+        <v>7.888252956392101E-4</v>
       </c>
       <c r="D15" s="55" t="s">
         <v>131</v>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="T15" s="20">
         <f t="shared" si="0"/>
-        <v>1.5776505912784206E-2</v>
+        <v>7.888252956392101E-4</v>
       </c>
       <c r="U15" s="19">
         <f t="shared" si="0"/>
@@ -14225,7 +14225,7 @@
       </c>
       <c r="W15" s="20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="X15" s="19">
         <f t="shared" si="0"/>
@@ -14233,7 +14233,7 @@
       </c>
       <c r="Y15" s="17">
         <f t="shared" si="0"/>
-        <v>-0.46577650591278419</v>
+        <v>-0.35578882529563921</v>
       </c>
       <c r="Z15" s="19">
         <f t="shared" si="0"/>
@@ -14270,7 +14270,7 @@
       </c>
       <c r="B16" s="7">
         <f t="shared" si="2"/>
-        <v>0.13907736643437518</v>
+        <v>6.9538683217187586E-3</v>
       </c>
       <c r="D16" s="55" t="s">
         <v>132</v>
@@ -14287,7 +14287,7 @@
       </c>
       <c r="J16" s="10">
         <f>J10/J25</f>
-        <v>10.333333333333334</v>
+        <v>206.6666666666674</v>
       </c>
       <c r="L16" s="54" t="s">
         <v>98</v>
@@ -14322,7 +14322,7 @@
       </c>
       <c r="T16" s="20">
         <f t="shared" si="0"/>
-        <v>0.13907736643437518</v>
+        <v>6.9538683217187586E-3</v>
       </c>
       <c r="U16" s="19">
         <f t="shared" si="0"/>
@@ -14338,7 +14338,7 @@
       </c>
       <c r="X16" s="20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Y16" s="19">
         <f t="shared" si="0"/>
@@ -14346,7 +14346,7 @@
       </c>
       <c r="Z16" s="17">
         <f t="shared" si="0"/>
-        <v>-0.58907736643437514</v>
+        <v>-0.36195386832171872</v>
       </c>
       <c r="AA16" s="19">
         <f t="shared" si="0"/>
@@ -14379,7 +14379,7 @@
       </c>
       <c r="B17" s="7">
         <f>B5*B13+(1-B5)*B14</f>
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D17" s="55" t="s">
         <v>133</v>
@@ -14398,7 +14398,7 @@
       </c>
       <c r="J17" s="6">
         <f>J14+B3</f>
-        <v>17.960999999999999</v>
+        <v>207.96100000000001</v>
       </c>
       <c r="L17" s="54" t="s">
         <v>99</v>
@@ -14417,7 +14417,7 @@
       </c>
       <c r="P17" s="20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q17" s="19">
         <f t="shared" si="0"/>
@@ -14437,11 +14437,11 @@
       </c>
       <c r="U17" s="20">
         <f t="shared" si="0"/>
-        <v>1.4987680617144995E-2</v>
+        <v>7.4938403085724956E-4</v>
       </c>
       <c r="V17" s="20">
         <f t="shared" si="0"/>
-        <v>7.8882529563921032E-4</v>
+        <v>3.9441264781960508E-5</v>
       </c>
       <c r="W17" s="19">
         <f t="shared" si="0"/>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="AA17" s="17">
         <f t="shared" si="0"/>
-        <v>-0.46577650591278419</v>
+        <v>-0.35578882529563921</v>
       </c>
       <c r="AB17" s="19">
         <f t="shared" si="0"/>
@@ -14500,7 +14500,7 @@
       </c>
       <c r="J18" s="6">
         <f>J15+B3</f>
-        <v>22.939</v>
+        <v>212.93899999999999</v>
       </c>
       <c r="L18" s="54" t="s">
         <v>100</v>
@@ -14523,7 +14523,7 @@
       </c>
       <c r="Q18" s="20">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R18" s="19">
         <f t="shared" si="0"/>
@@ -14539,11 +14539,11 @@
       </c>
       <c r="U18" s="20">
         <f t="shared" si="0"/>
-        <v>0.13212349811265642</v>
+        <v>6.6061749056328207E-3</v>
       </c>
       <c r="V18" s="20">
         <f t="shared" si="0"/>
-        <v>6.9538683217187595E-3</v>
+        <v>3.4769341608593794E-4</v>
       </c>
       <c r="W18" s="19">
         <f t="shared" si="0"/>
@@ -14567,7 +14567,7 @@
       </c>
       <c r="AB18" s="17">
         <f t="shared" ref="AB18:AF22" si="3">Q46</f>
-        <v>-0.58907736643437514</v>
+        <v>-0.36195386832171872</v>
       </c>
       <c r="AC18" s="19">
         <f t="shared" si="3"/>
@@ -14609,7 +14609,7 @@
       </c>
       <c r="J19" s="10">
         <f>(J17+J18)/2</f>
-        <v>20.45</v>
+        <v>210.45</v>
       </c>
       <c r="L19" s="54" t="s">
         <v>113</v>
@@ -14656,11 +14656,11 @@
       </c>
       <c r="W19" s="20">
         <f t="shared" si="4"/>
-        <v>1.4987680617144995E-2</v>
+        <v>7.4938403085724956E-4</v>
       </c>
       <c r="X19" s="20">
         <f t="shared" si="4"/>
-        <v>7.8882529563921032E-4</v>
+        <v>3.9441264781960508E-5</v>
       </c>
       <c r="Y19" s="19">
         <f t="shared" si="4"/>
@@ -14672,7 +14672,7 @@
       </c>
       <c r="AA19" s="20">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AB19" s="19">
         <f t="shared" si="4"/>
@@ -14680,7 +14680,7 @@
       </c>
       <c r="AC19" s="17">
         <f t="shared" si="3"/>
-        <v>-0.46577650591278419</v>
+        <v>-0.35578882529563921</v>
       </c>
       <c r="AD19" s="19">
         <f t="shared" si="3"/>
@@ -14720,7 +14720,7 @@
       </c>
       <c r="J20" s="11">
         <f>1-(J5/J2)</f>
-        <v>0.73485714285714288</v>
+        <v>0.98674285714285714</v>
       </c>
       <c r="L20" s="54" t="s">
         <v>114</v>
@@ -14767,11 +14767,11 @@
       </c>
       <c r="W20" s="20">
         <f t="shared" si="4"/>
-        <v>0.13212349811265642</v>
+        <v>6.6061749056328207E-3</v>
       </c>
       <c r="X20" s="20">
         <f t="shared" si="4"/>
-        <v>6.9538683217187595E-3</v>
+        <v>3.4769341608593794E-4</v>
       </c>
       <c r="Y20" s="19">
         <f t="shared" si="4"/>
@@ -14787,7 +14787,7 @@
       </c>
       <c r="AB20" s="20">
         <f t="shared" si="4"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AC20" s="19">
         <f t="shared" si="3"/>
@@ -14795,7 +14795,7 @@
       </c>
       <c r="AD20" s="17">
         <f t="shared" si="3"/>
-        <v>-0.58907736643437514</v>
+        <v>-0.36195386832171872</v>
       </c>
       <c r="AE20" s="19">
         <f t="shared" si="3"/>
@@ -14829,7 +14829,7 @@
       </c>
       <c r="J21" s="11">
         <f>1-(J6/J3)</f>
-        <v>0.43866666666666676</v>
+        <v>0.97193333333333332</v>
       </c>
       <c r="K21" s="36"/>
       <c r="L21" s="54" t="s">
@@ -14885,11 +14885,11 @@
       </c>
       <c r="Y21" s="20">
         <f t="shared" si="4"/>
-        <v>1.4987680617144995E-2</v>
+        <v>7.4938403085724956E-4</v>
       </c>
       <c r="Z21" s="20">
         <f t="shared" si="4"/>
-        <v>7.8882529563921032E-4</v>
+        <v>3.9441264781960508E-5</v>
       </c>
       <c r="AA21" s="19">
         <f t="shared" si="4"/>
@@ -14901,7 +14901,7 @@
       </c>
       <c r="AC21" s="20">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AD21" s="19">
         <f t="shared" si="3"/>
@@ -14909,7 +14909,7 @@
       </c>
       <c r="AE21" s="17">
         <f t="shared" si="3"/>
-        <v>-0.11577650591278421</v>
+        <v>-5.7888252956392102E-3</v>
       </c>
       <c r="AF21" s="19">
         <f t="shared" si="3"/>
@@ -14922,7 +14922,7 @@
       </c>
       <c r="B22">
         <f>B5*B15</f>
-        <v>7.8882529563921032E-4</v>
+        <v>3.9441264781960508E-5</v>
       </c>
       <c r="F22" s="14">
         <f>SUM(F2:F21)</f>
@@ -14934,7 +14934,7 @@
       </c>
       <c r="J22" s="10">
         <f>B4*J20+(1-B4)*J21</f>
-        <v>0.64600000000000002</v>
+        <v>0.98230000000000006</v>
       </c>
       <c r="L22" s="54" t="s">
         <v>116</v>
@@ -14989,11 +14989,11 @@
       </c>
       <c r="Y22" s="20">
         <f t="shared" si="4"/>
-        <v>0.13212349811265642</v>
+        <v>6.6061749056328207E-3</v>
       </c>
       <c r="Z22" s="20">
         <f t="shared" si="4"/>
-        <v>6.9538683217187595E-3</v>
+        <v>3.4769341608593794E-4</v>
       </c>
       <c r="AA22" s="19">
         <f t="shared" si="4"/>
@@ -15009,7 +15009,7 @@
       </c>
       <c r="AD22" s="20">
         <f t="shared" si="3"/>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE22" s="19">
         <f t="shared" si="3"/>
@@ -15017,7 +15017,7 @@
       </c>
       <c r="AF22" s="17">
         <f t="shared" si="3"/>
-        <v>-0.23907736643437519</v>
+        <v>-1.1953868321718759E-2</v>
       </c>
     </row>
     <row r="23" spans="1:32" ht="12.75">
@@ -15026,7 +15026,7 @@
       </c>
       <c r="B23">
         <f>B5*B16</f>
-        <v>6.9538683217187595E-3</v>
+        <v>3.4769341608593794E-4</v>
       </c>
       <c r="H23" s="64" t="s">
         <v>42</v>
@@ -15036,7 +15036,7 @@
       </c>
       <c r="J23" s="6">
         <f>B2*B4*(1-J20)</f>
-        <v>9.2799999999999994E-2</v>
+        <v>4.6399999999999992E-3</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="12.75">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="B24">
         <f>(1-B5)*B15</f>
-        <v>1.4987680617144995E-2</v>
+        <v>7.4938403085724956E-4</v>
       </c>
       <c r="H24" s="65"/>
       <c r="I24" s="7" t="s">
@@ -15053,7 +15053,7 @@
       </c>
       <c r="J24" s="8">
         <f>B2*(1-B4)*(1-J21)</f>
-        <v>8.4199999999999997E-2</v>
+        <v>4.2100000000000037E-3</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="12.75">
@@ -15062,7 +15062,7 @@
       </c>
       <c r="B25">
         <f>(1-B5)*B16</f>
-        <v>0.13212349811265642</v>
+        <v>6.6061749056328207E-3</v>
       </c>
       <c r="H25" s="66"/>
       <c r="I25" s="9" t="s">
@@ -15070,7 +15070,7 @@
       </c>
       <c r="J25" s="10">
         <f>B2*(1-J22)</f>
-        <v>0.17699999999999999</v>
+        <v>8.849999999999969E-3</v>
       </c>
     </row>
     <row r="26" spans="1:32" ht="14.25">
@@ -15089,7 +15089,7 @@
       </c>
       <c r="I27">
         <f>J17*J23</f>
-        <v>1.6667807999999997</v>
+        <v>0.96493903999999986</v>
       </c>
       <c r="J27" s="61">
         <f>J5+J8</f>
@@ -15107,10 +15107,10 @@
       </c>
       <c r="I28" s="59">
         <f t="shared" ref="I28:I29" si="6">J18*J24</f>
-        <v>1.9314638</v>
+        <v>0.8964731900000007</v>
       </c>
       <c r="J28" s="61">
-        <f t="shared" ref="J28:J29" si="7">J6+J9</f>
+        <f t="shared" ref="J28" si="7">J6+J9</f>
         <v>1.9350000000000001</v>
       </c>
     </row>
@@ -15121,7 +15121,7 @@
       </c>
       <c r="I29" s="59">
         <f t="shared" si="6"/>
-        <v>3.6196499999999996</v>
+        <v>1.8624824999999934</v>
       </c>
       <c r="J29" s="61">
         <f>J7*2+J10</f>
@@ -15199,7 +15199,7 @@
       </c>
       <c r="B31" s="53">
         <f>-SUM(C31:U31)</f>
-        <v>-0.82157736643437507</v>
+        <v>-0.68945386832171862</v>
       </c>
       <c r="C31" s="4">
         <f>B21</f>
@@ -15207,7 +15207,7 @@
       </c>
       <c r="D31" s="4">
         <f>B16</f>
-        <v>0.13907736643437518</v>
+        <v>6.9538683217187586E-3</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -15236,11 +15236,11 @@
       </c>
       <c r="B32" s="4">
         <f>B15</f>
-        <v>1.5776505912784206E-2</v>
+        <v>7.888252956392101E-4</v>
       </c>
       <c r="C32" s="53">
         <f>-SUM(B32,D32:U32)</f>
-        <v>-0.71577650591278419</v>
+        <v>-0.70078882529563913</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4">
@@ -15278,12 +15278,12 @@
       <c r="C33" s="4"/>
       <c r="D33" s="53">
         <f>-SUM(B33:C33,E33:U33)</f>
-        <v>-0.37445386832171873</v>
+        <v>-0.36784769341608592</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4">
         <f>B23</f>
-        <v>6.9538683217187595E-3</v>
+        <v>3.4769341608593794E-4</v>
       </c>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -15311,15 +15311,15 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4">
         <f>B24</f>
-        <v>1.4987680617144995E-2</v>
+        <v>7.4938403085724956E-4</v>
       </c>
       <c r="D34" s="4">
         <f>B22</f>
-        <v>7.8882529563921032E-4</v>
+        <v>3.9441264781960508E-5</v>
       </c>
       <c r="E34" s="53">
         <f>-SUM(B34:D34,F34:U34)</f>
-        <v>-0.36577650591278421</v>
+        <v>-0.35078882529563921</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -15348,7 +15348,7 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4">
         <f>B25</f>
-        <v>0.13212349811265642</v>
+        <v>6.6061749056328207E-3</v>
       </c>
       <c r="D35" s="4">
         <f>B19</f>
@@ -15357,7 +15357,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="53">
         <f>-SUM(B35:E35,G35:U35)</f>
-        <v>-0.8321234981126564</v>
+        <v>-0.70660617490563271</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -15384,7 +15384,7 @@
       </c>
       <c r="B36" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -15392,7 +15392,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="53">
         <f>-SUM(B36:F36,H36:U36)</f>
-        <v>-0.79999999999999993</v>
+        <v>-0.70499999999999996</v>
       </c>
       <c r="H36" s="4">
         <f>B19</f>
@@ -15429,11 +15429,11 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H37" s="53">
         <f>-SUM(B37:G37,I37:U37)</f>
-        <v>-0.79999999999999993</v>
+        <v>-0.70499999999999996</v>
       </c>
       <c r="I37" s="4">
         <f>B19</f>
@@ -15470,11 +15470,11 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="I38" s="53">
         <f>-SUM(B38:H38,J38:U38)</f>
-        <v>-0.45</v>
+        <v>-0.35499999999999998</v>
       </c>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
@@ -15502,20 +15502,20 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4">
         <f>B15</f>
-        <v>1.5776505912784206E-2</v>
+        <v>7.888252956392101E-4</v>
       </c>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="53">
         <f>-SUM(B39:I39,K39:U39)</f>
-        <v>-0.81577650591278417</v>
+        <v>-0.70578882529563924</v>
       </c>
       <c r="K39" s="4"/>
       <c r="L39" s="4">
@@ -15543,20 +15543,20 @@
       <c r="C40" s="4"/>
       <c r="D40" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4">
         <f>B16</f>
-        <v>0.13907736643437518</v>
+        <v>6.9538683217187586E-3</v>
       </c>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="53">
         <f>-SUM(B40:J40,L40:U40)</f>
-        <v>-0.93907736643437512</v>
+        <v>-0.7119538683217187</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4">
@@ -15587,17 +15587,17 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4">
         <f>B15</f>
-        <v>1.5776505912784206E-2</v>
+        <v>7.888252956392101E-4</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="K41" s="4"/>
       <c r="L41" s="53">
         <f>-SUM(B41:K41,M41:U41)</f>
-        <v>-0.81577650591278417</v>
+        <v>-0.70578882529563924</v>
       </c>
       <c r="M41" s="4"/>
       <c r="N41" s="4">
@@ -15627,18 +15627,18 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4">
         <f>B16</f>
-        <v>0.13907736643437518</v>
+        <v>6.9538683217187586E-3</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="53">
         <f>-SUM(B42:L42, N42:U42)</f>
-        <v>-0.93907736643437512</v>
+        <v>-0.7119538683217187</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4">
@@ -15668,18 +15668,18 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4">
         <f>B15</f>
-        <v>1.5776505912784206E-2</v>
+        <v>7.888252956392101E-4</v>
       </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="53">
         <f>-SUM(B43:M43,O43:U43)</f>
-        <v>-0.46577650591278419</v>
+        <v>-0.35578882529563921</v>
       </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
@@ -15705,19 +15705,19 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4">
         <f>B16</f>
-        <v>0.13907736643437518</v>
+        <v>6.9538683217187586E-3</v>
       </c>
       <c r="J44" s="4"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N44" s="4"/>
       <c r="O44" s="53">
         <f>-SUM(B44:N44,P44:U44)</f>
-        <v>-0.58907736643437514</v>
+        <v>-0.36195386832171872</v>
       </c>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -15738,7 +15738,7 @@
       <c r="D45" s="4"/>
       <c r="E45" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
@@ -15746,11 +15746,11 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4">
         <f>B24</f>
-        <v>1.4987680617144995E-2</v>
+        <v>7.4938403085724956E-4</v>
       </c>
       <c r="K45" s="4">
         <f>B22</f>
-        <v>7.8882529563921032E-4</v>
+        <v>3.9441264781960508E-5</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -15758,7 +15758,7 @@
       <c r="O45" s="4"/>
       <c r="P45" s="53">
         <f>-SUM(B45:O45,Q45:U45)</f>
-        <v>-0.46577650591278419</v>
+        <v>-0.35578882529563921</v>
       </c>
       <c r="Q45" s="4"/>
       <c r="R45" s="4">
@@ -15779,18 +15779,18 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4">
         <f>B25</f>
-        <v>0.13212349811265642</v>
+        <v>6.6061749056328207E-3</v>
       </c>
       <c r="K46" s="4">
         <f>B23</f>
-        <v>6.9538683217187595E-3</v>
+        <v>3.4769341608593794E-4</v>
       </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
@@ -15799,7 +15799,7 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="53">
         <f>-SUM(B46:P46,R46:U46)</f>
-        <v>-0.58907736643437514</v>
+        <v>-0.36195386832171872</v>
       </c>
       <c r="R46" s="4"/>
       <c r="S46" s="4">
@@ -15825,22 +15825,22 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4">
         <f>B24</f>
-        <v>1.4987680617144995E-2</v>
+        <v>7.4938403085724956E-4</v>
       </c>
       <c r="M47" s="4">
         <f>B22</f>
-        <v>7.8882529563921032E-4</v>
+        <v>3.9441264781960508E-5</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="Q47" s="4"/>
       <c r="R47" s="53">
         <f>-SUM(B47:Q47,S47:U47)</f>
-        <v>-0.46577650591278419</v>
+        <v>-0.35578882529563921</v>
       </c>
       <c r="S47" s="4"/>
       <c r="T47" s="4">
@@ -15865,23 +15865,23 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4">
         <f>B25</f>
-        <v>0.13212349811265642</v>
+        <v>6.6061749056328207E-3</v>
       </c>
       <c r="M48" s="4">
         <f>B23</f>
-        <v>6.9538683217187595E-3</v>
+        <v>3.4769341608593794E-4</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="R48" s="4"/>
       <c r="S48" s="53">
         <f>-SUM(B48:R48,T48:U48)</f>
-        <v>-0.58907736643437514</v>
+        <v>-0.36195386832171872</v>
       </c>
       <c r="T48" s="4"/>
       <c r="U48" s="4">
@@ -15907,22 +15907,22 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4">
         <f>B24</f>
-        <v>1.4987680617144995E-2</v>
+        <v>7.4938403085724956E-4</v>
       </c>
       <c r="O49" s="4">
         <f>B22</f>
-        <v>7.8882529563921032E-4</v>
+        <v>3.9441264781960508E-5</v>
       </c>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="S49" s="4"/>
       <c r="T49" s="53">
         <f>-SUM(B49:S49,U49)</f>
-        <v>-0.11577650591278421</v>
+        <v>-5.7888252956392102E-3</v>
       </c>
       <c r="U49" s="4"/>
     </row>
@@ -15944,23 +15944,23 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4">
         <f>B25</f>
-        <v>0.13212349811265642</v>
+        <v>6.6061749056328207E-3</v>
       </c>
       <c r="O50" s="4">
         <f>B23</f>
-        <v>6.9538683217187595E-3</v>
+        <v>3.4769341608593794E-4</v>
       </c>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="4">
         <f>B6</f>
-        <v>0.1</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="T50" s="4"/>
       <c r="U50" s="53">
         <f>-SUM(B50:T50)</f>
-        <v>-0.23907736643437519</v>
+        <v>-1.1953868321718759E-2</v>
       </c>
     </row>
   </sheetData>
